--- a/Ergün_Garzon/RFunctions.xlsx
+++ b/Ergün_Garzon/RFunctions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokce\Documents\MSc_DataScience\RBootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokce\Documents\GitHub\rbootcamp\Ergün_Garzon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055CB1E-6B7F-471C-B959-21BE88DA8C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE98EE-6A36-4BD4-A3CA-387227A329E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>seq()</t>
-  </si>
-  <si>
-    <t>seq(from = 1, to = 10, by = 2)</t>
-  </si>
-  <si>
-    <t>seq(0, 10, length.out = 13)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="171">
   <si>
     <t>methods(plot)</t>
   </si>
@@ -75,9 +63,6 @@
     <t>Matteo doesnt use it, there is more modern approaches in tidyverse library</t>
   </si>
   <si>
-    <t>class(vector)</t>
-  </si>
-  <si>
     <t>cbind(matrix, c(99, 102))</t>
   </si>
   <si>
@@ -87,9 +72,6 @@
     <t>colnames(df)</t>
   </si>
   <si>
-    <t>class(df)</t>
-  </si>
-  <si>
     <t>make.names()</t>
   </si>
   <si>
@@ -108,12 +90,6 @@
     <t>args(pnorm)</t>
   </si>
   <si>
-    <t>apropos('read')</t>
-  </si>
-  <si>
-    <t>apropos('read\\.')</t>
-  </si>
-  <si>
     <t>read.table(file, header)</t>
   </si>
   <si>
@@ -147,9 +123,6 @@
     <t>as.numeric()</t>
   </si>
   <si>
-    <t>assert package</t>
-  </si>
-  <si>
     <t>table(iris[, 'Species'], useNA = "ifany")</t>
   </si>
   <si>
@@ -451,19 +424,167 @@
   </si>
   <si>
     <t>{ggmap}</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>as.Date(df_trees$date,format="%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>{base}</t>
+  </si>
+  <si>
+    <t>to save as a date format</t>
+  </si>
+  <si>
+    <t>ymd(df_trees$date)</t>
+  </si>
+  <si>
+    <t>{lubridate}</t>
+  </si>
+  <si>
+    <t>dmy(010210)</t>
+  </si>
+  <si>
+    <t>mdy(010210)</t>
+  </si>
+  <si>
+    <t>to save as a date format - year,month,day</t>
+  </si>
+  <si>
+    <t>day, month, year</t>
+  </si>
+  <si>
+    <t>month, day, year</t>
+  </si>
+  <si>
+    <t>{leaflet}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggmap(map) + geom_point(aes(longitude, latitude), data = df_trees) </t>
+  </si>
+  <si>
+    <t>leaflet(data, width, height, options = leafletOptions(minZoom = 9, maxZoom = 18))</t>
+  </si>
+  <si>
+    <t>separate(species, sep = "::", remove = FALSE, into = c('species_lat', 'species_nor'))</t>
+  </si>
+  <si>
+    <t>Given either regular expression or a vector of character positions. It turns a single character column into multiple columns</t>
+  </si>
+  <si>
+    <t>transition_states(year)</t>
+  </si>
+  <si>
+    <t>{gganimate}</t>
+  </si>
+  <si>
+    <t>animate(staticplot + output of transition state)</t>
+  </si>
+  <si>
+    <t>splits up the data in multiple panels. It then tweens between the defined states and pauses at each state</t>
+  </si>
+  <si>
+    <t>to create gifs: animate(renderer = gifski_renderer("gganim.gif"))); to create mp4 renderer = av_renderer()</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>seq(from = 1, to = 10, by = 2); seq(0, 10, length.out = 13)</t>
+  </si>
+  <si>
+    <t>apropos('read'); apropos('read\\.')</t>
+  </si>
+  <si>
+    <t>{assert}</t>
+  </si>
+  <si>
+    <t>assert(list of logical assertions, msg = "", stop = TRUE)</t>
+  </si>
+  <si>
+    <t>Assert that each of the provided expression is true. Otherwise stop execution and return a description of each failed assertion.</t>
+  </si>
+  <si>
+    <r>
+      <t>Print version information about R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the OS and attached or loaded packages</t>
+    </r>
+  </si>
+  <si>
+    <t>CHECKPOINT - PACKAGE</t>
+  </si>
+  <si>
+    <t>PACKRAT - PACKAGE</t>
+  </si>
+  <si>
+    <t>plot_layout()</t>
+  </si>
+  <si>
+    <t>allows you to define the grid that plots are put into</t>
+  </si>
+  <si>
+    <t>plot_annotation() </t>
+  </si>
+  <si>
+    <t>llows you to add titles, tags etc.</t>
+  </si>
+  <si>
+    <t>Similar packages</t>
+  </si>
+  <si>
+    <t>gridExtra, cowplot</t>
+  </si>
+  <si>
+    <t>used to make R projects more isolated, portable, and reproducible</t>
+  </si>
+  <si>
+    <t>KABLE PACKAGE</t>
+  </si>
+  <si>
+    <t>KNITR PACKAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,8 +607,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,278 +905,344 @@
     <col min="1" max="1" width="85.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>37</v>
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -1058,6 +1250,9 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1065,183 +1260,210 @@
       <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
       <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>66</v>
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
       <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>84</v>
+      <c r="A66" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" t="s">
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>89</v>
       </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
         <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>97</v>
       </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,36 +1471,24 @@
         <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>104</v>
       </c>
-      <c r="C77" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
         <v>105</v>
-      </c>
-      <c r="B78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1286,58 +1496,55 @@
       <c r="A80" t="s">
         <v>108</v>
       </c>
-      <c r="B80" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C81" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" t="s">
         <v>118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1349,13 +1556,10 @@
       <c r="A89" t="s">
         <v>120</v>
       </c>
-      <c r="B89" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
         <v>122</v>
@@ -1363,6 +1567,9 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1370,26 +1577,35 @@
       <c r="A92" t="s">
         <v>125</v>
       </c>
-      <c r="C92" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
       <c r="B93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>129</v>
+      <c r="C95" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,43 +1613,83 @@
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="C96" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="C97" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>146</v>
+      </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1" display="http://127.0.0.1:13341/help/library/patchwork/help/plot_annotation" xr:uid="{A19AA521-A03C-4B52-AA17-40540DFF8D29}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>